--- a/inst/Data_Analysis_Modules/Module2.xlsx
+++ b/inst/Data_Analysis_Modules/Module2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Choices</t>
   </si>
@@ -69,9 +69,6 @@
     <t>command</t>
   </si>
   <si>
-    <t>exact</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t xml:space="preserve">In conclusion, three important measures of variability are which of the following: </t>
   </si>
   <si>
-    <t>1. mean, median, range
-2. spread, mean, central tendency
-3. variance, dispersion, spread 
-4. range, variance, standard deviation</t>
-  </si>
-  <si>
     <t>central tendency, dispersion</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>Type in 'sd(cars$price)' and press enter.</t>
   </si>
   <si>
-    <t>Variance is the standard deviation squared.</t>
-  </si>
-  <si>
     <t>http://youtu.be/E4HAYd0QnRc</t>
   </si>
   <si>
@@ -181,6 +169,18 @@
   </si>
   <si>
     <t xml:space="preserve">Therefore, it is important to describe both the __________ and _________ of a data set. </t>
+  </si>
+  <si>
+    <t>mean, median, range
+spread, mean, central tendency
+variance, dispersion, spread 
+range, variance, standard deviation</t>
+  </si>
+  <si>
+    <t>var(cars$price)</t>
+  </si>
+  <si>
+    <t>Type in 'var(cars$price)' and press enter.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,595 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="132">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -950,7 +1538,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -998,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -1009,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9"/>
@@ -1017,7 +1605,7 @@
       <c r="F2" s="10"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1025,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1033,7 +1621,7 @@
       <c r="F3" s="10"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1041,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -1049,7 +1637,7 @@
       <c r="F4" s="10"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1057,21 +1645,21 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1079,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="11"/>
@@ -1087,7 +1675,7 @@
       <c r="F6" s="9"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1095,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -1103,7 +1691,7 @@
       <c r="F7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1111,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -1119,7 +1707,7 @@
       <c r="F8" s="10"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -1127,21 +1715,21 @@
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1149,21 +1737,21 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11">
         <v>54.5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1171,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
@@ -1179,7 +1767,7 @@
       <c r="F11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1187,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
@@ -1195,7 +1783,7 @@
       <c r="F12" s="10"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1203,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -1211,7 +1799,7 @@
       <c r="F13" s="10"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -1219,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -1227,7 +1815,7 @@
       <c r="F14" s="10"/>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1235,21 +1823,21 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1257,21 +1845,21 @@
         <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>132.39840000000001</v>
+      <c r="E16" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1279,17 +1867,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="I17" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -1297,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1305,31 +1893,31 @@
       <c r="F18" s="10"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1781,156 +2369,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1 A2:A3 C2:J3 A4:J5 A12:J12 A6:A7 C6:J7 A15:J15 A13:A14 C13:J14 A16 C16:J16 A20 C9:J11 A9:A11 A19:C19 E19:J20 C20 A22:J1048576 A21:E21 G21:J21 A17:J18">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="87" priority="37">
       <formula>EXACT($A1,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="86" priority="38">
       <formula>EXACT($A1,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="85" priority="39">
       <formula>EXACT($A1,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="84" priority="40">
       <formula>EXACT($A1,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="79" priority="33">
       <formula>EXACT($A2,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="78" priority="34">
       <formula>EXACT($A2,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="77" priority="35">
       <formula>EXACT($A2,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="76" priority="36">
       <formula>EXACT($A2,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="71" priority="29">
       <formula>EXACT($A6,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="70" priority="30">
       <formula>EXACT($A6,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="69" priority="31">
       <formula>EXACT($A6,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="68" priority="32">
       <formula>EXACT($A6,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>EXACT($A7,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="62" priority="26">
       <formula>EXACT($A7,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>EXACT($A7,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="60" priority="28">
       <formula>EXACT($A7,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B11">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="55" priority="21">
       <formula>EXACT($A9,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>EXACT($A9,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>EXACT($A9,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>EXACT($A9,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="47" priority="17">
       <formula>EXACT($A13,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="46" priority="18">
       <formula>EXACT($A13,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="45" priority="19">
       <formula>EXACT($A13,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>EXACT($A13,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>EXACT($A16,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="38" priority="14">
       <formula>EXACT($A16,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>EXACT($A16,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>EXACT($A16,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>EXACT($A20,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT($A20,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>EXACT($A20,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>EXACT($A20,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8 C8:J8">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT($A8,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT($A8,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>EXACT($A8,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>EXACT($A8,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>EXACT($A8,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>EXACT($A8,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="7" priority="41">
       <formula>EXACT($A20,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>EXACT($A20,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="55">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>EXACT($A20,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="56">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>EXACT($A20,"figure")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/Data_Analysis_Modules/Module2.xlsx
+++ b/inst/Data_Analysis_Modules/Module2.xlsx
@@ -171,16 +171,13 @@
     <t xml:space="preserve">Therefore, it is important to describe both the __________ and _________ of a data set. </t>
   </si>
   <si>
-    <t>mean, median, range
-spread, mean, central tendency
-variance, dispersion, spread 
-range, variance, standard deviation</t>
-  </si>
-  <si>
     <t>var(cars$price)</t>
   </si>
   <si>
     <t>Type in 'var(cars$price)' and press enter.</t>
+  </si>
+  <si>
+    <t>mean, median, range; spread, mean, central tendency; variance, dispersion, spread; range, variance, standard deviation</t>
   </si>
 </sst>
 </file>
@@ -330,623 +327,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
@@ -1538,7 +919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1852,10 +1233,10 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
@@ -1896,7 +1277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>36</v>
@@ -2369,156 +1750,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1 A2:A3 C2:J3 A4:J5 A12:J12 A6:A7 C6:J7 A15:J15 A13:A14 C13:J14 A16 C16:J16 A20 C9:J11 A9:A11 A19:C19 E19:J20 C20 A22:J1048576 A21:E21 G21:J21 A17:J18">
-    <cfRule type="expression" dxfId="87" priority="37">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>EXACT($A1,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="38">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>EXACT($A1,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>EXACT($A1,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>EXACT($A1,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="79" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>EXACT($A2,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>EXACT($A2,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>EXACT($A2,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>EXACT($A2,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="71" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>EXACT($A6,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>EXACT($A6,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>EXACT($A6,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>EXACT($A6,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>EXACT($A7,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>EXACT($A7,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>EXACT($A7,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>EXACT($A7,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B11">
-    <cfRule type="expression" dxfId="55" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>EXACT($A9,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>EXACT($A9,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>EXACT($A9,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>EXACT($A9,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="47" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>EXACT($A13,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>EXACT($A13,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>EXACT($A13,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>EXACT($A13,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>EXACT($A16,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>EXACT($A16,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>EXACT($A16,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>EXACT($A16,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>EXACT($A20,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>EXACT($A20,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>EXACT($A20,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>EXACT($A20,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8 C8:J8">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>EXACT($A8,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>EXACT($A8,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>EXACT($A8,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>EXACT($A8,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>EXACT($A8,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>EXACT($A8,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="7" priority="41">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>EXACT($A20,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>EXACT($A20,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="43">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>EXACT($A20,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="44">
+    <cfRule type="expression" dxfId="0" priority="44">
       <formula>EXACT($A20,"figure")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/Data_Analysis_Modules/Module2.xlsx
+++ b/inst/Data_Analysis_Modules/Module2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Dropbox\R_Working_Directory\My_Packages\swirl\inst\Data_Analysis_Modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$K</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Choices</t>
   </si>
@@ -75,48 +80,21 @@
     <t xml:space="preserve">While measures of central tendency are used to estimate the middle values of a dataset, measures of dispersion are important for describing the spread of the data. </t>
   </si>
   <si>
-    <t>The term dispersion refers to degree to which the data values are scattered around an average value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two different samples may have the same mean or median, but different levels of variability or vice versa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this module, we will discuss the three statistical values most commonly used to describe the variability of a data set. Variability is a fancy term used to classify how variable or spread out the data is. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The first descriptive statistic that can describe the variability of a data set is known as the RANGE. The range is the difference between the maximum and minimum values of the data set. </t>
   </si>
   <si>
     <t xml:space="preserve">To demonstrate how you can use R to determine the range of a data set we will refer back to the cars data set from the previous module. </t>
   </si>
   <si>
-    <t>The second and third important measures of variability are known as VARIANCE and STANDARD DEVIATION and are very closely related.</t>
-  </si>
-  <si>
-    <t>Mathematically, VARIANCE is the average of the squared differences from the mean. More simply, variance represents the total distance of the data from the mean.</t>
-  </si>
-  <si>
-    <t>The standard deviation can be calculated by taking the square root of the variance and vice versa.</t>
-  </si>
-  <si>
     <t>To Statisticians, the standard deviation is a more conventional measure of variability because it is expressed in the same units as the original data values.</t>
   </si>
   <si>
-    <t>A low value for variance indicates that the data points tend to be located near the mean value; a high value for variance indicates that the data points are spread further from the mean.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type in the R-command 'range(cars$price)' to determine the exact values for the minimum and maximum prices of cars in the data set. </t>
   </si>
   <si>
     <t xml:space="preserve">Now that you have the minimum and maximum price values, calculate the range of this data. </t>
   </si>
   <si>
-    <t>Use the R-command 'sd(cars$price)' to calculate the standard deviation of the car prices.</t>
-  </si>
-  <si>
-    <t>Now that you have calculated the standard deviation of this data, calculate the variance of the data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Would you like to watch a short video that goes deeper into how variance and standard deviation are calculated? </t>
   </si>
   <si>
@@ -141,15 +119,9 @@
     <t>The first term refers to the middle of a dataset. The second term refers to the spread of a dataset.</t>
   </si>
   <si>
-    <t xml:space="preserve">Type in 'range(cars$price) without quotations' and hit enter to see the minimum and maximum prices. </t>
-  </si>
-  <si>
     <t>Subtract the minimum price value from the maximum price value.</t>
   </si>
   <si>
-    <t>Type in 'sd(cars$price)' and press enter.</t>
-  </si>
-  <si>
     <t>http://youtu.be/E4HAYd0QnRc</t>
   </si>
   <si>
@@ -178,17 +150,205 @@
   </si>
   <si>
     <t>mean, median, range; spread, mean, central tendency; variance, dispersion, spread; range, variance, standard deviation</t>
+  </si>
+  <si>
+    <t>median, variability; central tendency, dispersion; middle, mean; spread, variability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The values for variance and standard deviation are very closely related. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The standard deviation can be calculated by taking the square root of the variance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">where as the variance can be calculated by squaring the standard deviation. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In R, you can use the command 'var(data)' to easily calculate the variance of a particular set of data. Try calculating the variance for the data 'cars$price'. </t>
+  </si>
+  <si>
+    <t>Similar to variance, you can use the R-command 'sd(data)' to calculate the standard deviation of a particular set of data. Try calculating the standard deviation for the data 'cars$price'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type in 'sd(cars$price)' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without quotations and press enter to see the dtandard deviation of the prices of cars.</t>
+    </r>
+  </si>
+  <si>
+    <t>Type in 'var(cars$price)' without quotations and press enter to see the variance of the prices of cars.</t>
+  </si>
+  <si>
+    <r>
+      <t>Type in 'range(cars$price)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> without quotation' and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>press</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enter to see the minimum and maximum prices. </t>
+    </r>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>Welcome to Module 2! In this module, we will learn what DISPERSION is and what statistical values are needed in order to best describe the spread of data.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Why is it important to analyze the spread of a particular set of data? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Two different samples may have the same mean or median, but different levels of variability or vice versa. </t>
+    </r>
+  </si>
+  <si>
+    <t>The second important mesaure of variability is known as VARIANCE. Mathematically, VARIANCE is the average of the squared differences from the mean. More simply, variance represents the total distance of the data from the mean.</t>
+  </si>
+  <si>
+    <t>The term dispersion refers to degree to which the data values are scattered around an average value. Dispersion is synonymous with other words such as variability and the spread.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this module, we will discuss the three statistical values most commonly used to describe the dispersion or variability of a data set. Variability is a fancy term used to classify how variable or spread out the data is. </t>
+  </si>
+  <si>
+    <r>
+      <t>Using the relationship between standard deviation and variance described above</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use a different method and your standard deviation value calculated in the previous question to find the variance. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The value for variance is important when later analyzing our data set. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A low value for variance indicates that the data points tend to be located near the mean value; a high value for variance indicates that the data points are spread further from the mean.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculating the range, variance, and standard deviaiton of a data set allows you to more clearly describe the spread of a particular data set. When applied in the real world, lower values for these three statistics will indicate more consistent data wheras higher values for these three statistics will indicate more variable and less consistent data. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -227,8 +387,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -264,126 +442,92 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -692,7 +836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +871,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,22 +1059,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="32.42578125" style="1" customWidth="1"/>
     <col min="9" max="10" width="33" style="4" customWidth="1"/>
     <col min="11" max="11" width="57.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" style="1" hidden="1" customWidth="1"/>
@@ -973,386 +1117,397 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
-        <v>54.5</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>54.5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
+      <c r="B12" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>25</v>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
+      <c r="B16" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>50</v>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="I17" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>132.39840000000001</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>26</v>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="I19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F20" s="11"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I21" s="11"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F22" s="10"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F23" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
@@ -1432,7 +1587,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
@@ -1448,7 +1603,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="9:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
@@ -1532,7 +1687,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
@@ -1548,7 +1703,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="9:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
@@ -1585,14 +1740,14 @@
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
     </row>
     <row r="91" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
@@ -1601,14 +1756,14 @@
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
     </row>
     <row r="95" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="9:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
@@ -1732,181 +1887,142 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:J1 A2:A3 C2:J3 A4:J5 A12:J12 A6:A7 C6:J7 A15:J15 A13:A14 C13:J14 A16 C16:J16 A20 C9:J11 A9:A11 A19:C19 E19:J20 C20 A22:J1048576 A21:E21 G21:J21 A17:J18">
-    <cfRule type="expression" dxfId="43" priority="37">
+  <conditionalFormatting sqref="A1:J2 A3:A4 C3:J4 A5:J6 A7:A8 C7:J8 A17 C17:J17 A10:J16 A18:J19 A22:D22 A23:J1048576 A21:C21 A20:B20 D20">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>EXACT($A1,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>EXACT($A1,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>EXACT($A1,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>EXACT($A1,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>EXACT($A2,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>EXACT($A2,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>EXACT($A2,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>EXACT($A2,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="35" priority="29">
-      <formula>EXACT($A6,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>EXACT($A6,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
-      <formula>EXACT($A6,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>EXACT($A6,"figure")</formula>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>EXACT($A3,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>EXACT($A3,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>EXACT($A3,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="36">
+      <formula>EXACT($A3,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>EXACT($A7,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>EXACT($A7,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>EXACT($A7,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>EXACT($A7,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B11">
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>EXACT($A9,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>EXACT($A9,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
-      <formula>EXACT($A9,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>EXACT($A9,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>EXACT($A13,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>EXACT($A13,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>EXACT($A13,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>EXACT($A13,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>EXACT($A16,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>EXACT($A16,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>EXACT($A16,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>EXACT($A16,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>EXACT($A20,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>EXACT($A20,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>EXACT($A20,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>EXACT($A20,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8 C8:J8">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>EXACT($A8,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>EXACT($A8,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>EXACT($A8,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>EXACT($A8,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>EXACT($A8,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>EXACT($A8,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="3" priority="41">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>EXACT($A17,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>EXACT($A17,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>EXACT($A17,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>EXACT($A17,"figure")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 C9:J9">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>EXACT($A9,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>EXACT($A9,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>EXACT($A9,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>EXACT($A9,"figure")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>EXACT($A9,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>EXACT($A9,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>EXACT($A9,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>EXACT($A9,"figure")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:J21">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>EXACT($A20,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="6" priority="54">
       <formula>EXACT($A20,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="5" priority="55">
       <formula>EXACT($A20,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="4" priority="56">
       <formula>EXACT($A20,"figure")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="3" priority="65">
+      <formula>EXACT(#REF!,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="66">
+      <formula>EXACT(#REF!,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="67">
+      <formula>EXACT(#REF!,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="68">
+      <formula>EXACT(#REF!,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="I19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="37" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="37" fitToHeight="0" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/inst/Data_Analysis_Modules/Module2.xlsx
+++ b/inst/Data_Analysis_Modules/Module2.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Dropbox\R_Working_Directory\My_Packages\swirl\inst\Data_Analysis_Modules\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="8655"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="25860" windowHeight="15580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
   <si>
     <t>Choices</t>
   </si>
@@ -92,15 +87,9 @@
     <t xml:space="preserve">Type in the R-command 'range(cars$price)' to determine the exact values for the minimum and maximum prices of cars in the data set. </t>
   </si>
   <si>
-    <t xml:space="preserve">Now that you have the minimum and maximum price values, calculate the range of this data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Would you like to watch a short video that goes deeper into how variance and standard deviation are calculated? </t>
   </si>
   <si>
-    <t xml:space="preserve">In conclusion, three important measures of variability are which of the following: </t>
-  </si>
-  <si>
     <t>central tendency, dispersion</t>
   </si>
   <si>
@@ -144,9 +133,6 @@
   </si>
   <si>
     <t>var(cars$price)</t>
-  </si>
-  <si>
-    <t>Type in 'var(cars$price)' and press enter.</t>
   </si>
   <si>
     <t>mean, median, range; spread, mean, central tendency; variance, dispersion, spread; range, variance, standard deviation</t>
@@ -193,63 +179,7 @@
     <t>Similar to variance, you can use the R-command 'sd(data)' to calculate the standard deviation of a particular set of data. Try calculating the standard deviation for the data 'cars$price'.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Type in 'sd(cars$price)' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>without quotations and press enter to see the dtandard deviation of the prices of cars.</t>
-    </r>
-  </si>
-  <si>
     <t>Type in 'var(cars$price)' without quotations and press enter to see the variance of the prices of cars.</t>
-  </si>
-  <si>
-    <r>
-      <t>Type in 'range(cars$price)'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> without quotation' and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>press</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enter to see the minimum and maximum prices. </t>
-    </r>
-  </si>
-  <si>
-    <t>exact</t>
-  </si>
-  <si>
-    <t>Welcome to Module 2! In this module, we will learn what DISPERSION is and what statistical values are needed in order to best describe the spread of data.</t>
   </si>
   <si>
     <r>
@@ -284,9 +214,6 @@
   </si>
   <si>
     <r>
-      <t>Using the relationship between standard deviation and variance described above</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -294,7 +221,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>Three</t>
     </r>
     <r>
       <rPr>
@@ -304,8 +231,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">use a different method and your standard deviation value calculated in the previous question to find the variance. </t>
-    </r>
+      <t xml:space="preserve"> important measures of variability are which of the following: </t>
+    </r>
+  </si>
+  <si>
+    <t>box-and-whisker plot</t>
+  </si>
+  <si>
+    <t>Would you like to watch a brief YouTube video on box-and-whisker plots?</t>
+  </si>
+  <si>
+    <t>http://youtu.be/BXq5TFLvsVw</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Here I have created a box plot to represent the price data for each of the three car types: large, midsize, and small. You'll notice that each of the 3 figures is composed of a closed 4-sided "box" with "whiskers" on the top and bottom, hence the name box-and-whisker plot.</t>
+  </si>
+  <si>
+    <t>mod1_boxplot.R</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>The height of each box is referred to as the INTERQUARTILE RANGE (IQR). The more variability within the data, the larger the IQR. On the other hand, less variability within the data means a smaller IQR. The bottom of the box in the box plot corresponds to the value of the first quartile (Q1), and the top of the box corresponds to the value of the third quartile (Q3). To calculate the value of the IQR, simply subtract the value of Q1 from that of Q3.</t>
+  </si>
+  <si>
+    <t>The whiskers, or lines, that extend above and below each box represent roughly the upper 25% and lower 25% of data points, respectively. The only exception is when there are outliers, which I'll explain shortly.</t>
+  </si>
+  <si>
+    <t>Looking at the box plot, what is the approximate interquartile range for the midsize vehicles?</t>
+  </si>
+  <si>
+    <t>Subtract the Q1 value from the Q3 value. The Q1 value is the minimum value contained in the box and the Q3 value is the maximum value contained in the box.</t>
+  </si>
+  <si>
+    <t>Let's take a closer look at how quartiles are calculated. We start by sorting the data from least to greatest, just like when calculating the median. The first quartile (Q1), also known at the 25th PERCENTILE (since 25% of the data points fall at or below this value), is simply the median of the first half of the sorted data. Likewise, the third quartile (Q3), also known as the 75th percentile, is the median of the second half of the sorted data.</t>
+  </si>
+  <si>
+    <t>As shown in this plot, the blue horizontal line illustrates how to find the value for the first quartile. The green horizontal line illustrates how to find the value for the third quartile. The interquartile range is the range of data values that is contained in between these two lines.</t>
+  </si>
+  <si>
+    <t>mod1_boxplot_add.R</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>When looking at the box plot, which car types appear to have outliers? Separate your answers with a comma.</t>
+  </si>
+  <si>
+    <t>small, midsize</t>
+  </si>
+  <si>
+    <t>Look for the types of cars that correspond to the box plots with circles above or below them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look again at our box plot of price vs. car type. You may be thinking to yourself, 'What is that circle above the box plots for the midsize cars, and why is there no circle above the box plot for the large cars?' Those circles represent OUTLIERS in the data set. </t>
+  </si>
+  <si>
+    <t>An OUTLIER is an observation that is unusual or extreme relative to the other values in the data set. Outliers are useful in identifying a heavy skew in a distribution, and may signify a data collection or data entry error to a scientist. There are many different conventions for identifying outliers within a data set.</t>
+  </si>
+  <si>
+    <t>As you can see in the box plot, the data for prices of 'midsize' cars vary from around 15 to 62, encompassing a range of approximately 50. This is a great deal larger than the variation for 'small' cars which range from around 5 to 15, encompassing a range of approximately 10. Therefore, since the range is much greater for 'midsize' cars, prices of 'midsize' cars have much higher variability in comparison to the prices of 'small' cars.</t>
+  </si>
+  <si>
+    <t>Now it is your turn! Is the variability of prices of cars of type 'large' higher or lower than that of cars of type 'small'?</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>Look to see if the range of cars of type 'large' is greater or less than that of cars of type 'small'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have officially mastered the concept of dispersion and have fully learned how to read and interpret a box-and-whisker plot. These are two very valuable tools used everyday in descriptive statistics. Congratulations! In the next module, you will learn about data visualization. </t>
+  </si>
+  <si>
+    <t>interquartile range</t>
+  </si>
+  <si>
+    <t>outlier</t>
+  </si>
+  <si>
+    <t>variability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to Module 2! In this module, we will learn what DISPERSION is and what statistical values are needed in order to best describe the spread of data. Further, you will learn all about a box-and-whisker plot which is  a plot commonly used by Statisticians when determining variability. </t>
+  </si>
+  <si>
+    <t>sd(cars$price)^2</t>
   </si>
   <si>
     <r>
@@ -316,7 +333,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">The value for variance is important when later analyzing our data set. </t>
+      <t>The value for variance is very important when analyzing our data set. A low value for variance indicates that the data points tend to be located near the mean value; a high value for variance indicates that the data points are spread further from the mean.</t>
+    </r>
+  </si>
+  <si>
+    <t>A BOX PLOT, also called a BOX-AND-WHISKER PLOT, is used to summarize the main descriptive statistics of a particular data set and this type of plot helps illustrate this concept of variability. A box plot is used to visually represent the MINIMUM, FIRST QUARTILE (Q1), MEDIAN, THIRD QUARTILE (Q3), and MAXIMUM of a data set.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>Dispersion describes the ______ of a data set and central tendency estimates the ______ of a data set.</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>spread, center</t>
+  </si>
+  <si>
+    <t>The first term refers to the scattering of the data values. The second term refers to the middle of a data set.</t>
+  </si>
+  <si>
+    <t>variability, spread; spread, center; middle, variability; statistics, middle</t>
+  </si>
+  <si>
+    <t>range(cars$mpgCity)</t>
+  </si>
+  <si>
+    <r>
+      <t>Type in 'range(cars$</t>
     </r>
     <r>
       <rPr>
@@ -326,22 +375,300 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A low value for variance indicates that the data points tend to be located near the mean value; a high value for variance indicates that the data points are spread further from the mean.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculating the range, variance, and standard deviaiton of a data set allows you to more clearly describe the spread of a particular data set. When applied in the real world, lower values for these three statistics will indicate more consistent data wheras higher values for these three statistics will indicate more variable and less consistent data. </t>
+      <t>mpgCity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> without quotations and press enter to see the minimum and maximum prices. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Type in 'range(cars$price)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> without quotations and press enter to see the minimum and maximum prices. </t>
+    </r>
+  </si>
+  <si>
+    <t>Now, type in the R-command 'range(cars$mpgCity) to determine the exact values for the minimum and maximum miles per gallon obtained while driving in the city for the cars in the data set.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now that you have the minimum and maximum 'price' values, calculate the range of the 'price' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data. </t>
+    </r>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subtract the minimum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mpgCity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value from the maximum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mpgCity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value.</t>
+    </r>
+  </si>
+  <si>
+    <t>This time, calculate the range of the 'mpgCity' data using your minimum and maximum 'mpgCity' values from above.</t>
+  </si>
+  <si>
+    <t>var(cars$mpgCity)</t>
+  </si>
+  <si>
+    <r>
+      <t>Type in 'var(cars$mpgCity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)' without quotations and press enter to see the variance of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miles per gallon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of cars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> obtained in the city.</t>
+    </r>
+  </si>
+  <si>
+    <t>Next, try calculating the variance for the data 'car$mpgCity'.</t>
+  </si>
+  <si>
+    <t>sd(cars$mpgCity)</t>
+  </si>
+  <si>
+    <t>Type in 'sd(cars$mpgCity)' without quotations and press enter to see the standard deviation of the miles per gallon obtained by the cars in the city.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type in 'sd(cars$price)' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without quotations and press enter to see the standard deviation of the prices of cars.</t>
+    </r>
+  </si>
+  <si>
+    <t>This time try calculating the standard deviation for the data 'cars$mpgCity'.</t>
+  </si>
+  <si>
+    <r>
+      <t>Using the relationship between standard deviation and variance described above</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, use a different method and your standard deviation value calculated for the data 'cars$price' to find the variance. </t>
+    </r>
+  </si>
+  <si>
+    <t>sd(cars$mpgCity)^2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Square your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard deviation value calculated for the prices of cars.</t>
+    </r>
+  </si>
+  <si>
+    <t>Square your standard deviation value calculated for miles per gallon obtained by cars in the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, using this same relationship between standard deviation and variance described above, once again use this different method and your standard deviation value calculated for the data 'cars$mpgCity' to find the variance. </t>
+  </si>
+  <si>
+    <t>Which of the following is not an important measure of variability?</t>
+  </si>
+  <si>
+    <t>standard deviation; central tendency; range; variance</t>
+  </si>
+  <si>
+    <t>central tendency</t>
+  </si>
+  <si>
+    <t>Look for the term that describes the middle of the data NOT the variability.</t>
+  </si>
+  <si>
+    <t>Also, what is the approximate interquartile range for the large vehicles?</t>
+  </si>
+  <si>
+    <t>16; 22</t>
+  </si>
+  <si>
+    <t>5; 10</t>
+  </si>
+  <si>
+    <t>Do large cars appear to have outliers?</t>
+  </si>
+  <si>
+    <t>yes; no; cannot be determined from this plot</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Look to see if there are circles representing outliers above the 'large' box-and-whisker plot.</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>Next, is the variability of prices of cars of type 'large' higher or lower than that of cars of type 'midsize'?</t>
+  </si>
+  <si>
+    <t>Look to see if the range of cars of type 'large' is greater or less than that of cars of type 'midsize'.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -400,7 +727,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +754,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -455,107 +806,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -1048,7 +1484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,33 +1492,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="32.42578125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="33" style="4" customWidth="1"/>
-    <col min="11" max="11" width="57.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="28.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33" style="4" customWidth="1"/>
+    <col min="12" max="12" width="57.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="28.6640625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1090,932 +1529,1559 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="73" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10"/>
+      <c r="B4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="90">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>54.5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="I12" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>54.5</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60">
       <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>30</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45">
+      <c r="B15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="105">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <v>132.39840000000001</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="120">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="60">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="75">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="45">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="J25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" s="17" customFormat="1" ht="90">
+      <c r="A26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="17" customFormat="1" ht="60">
+      <c r="A27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" ht="75">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" ht="30">
+      <c r="A29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" ht="60">
+      <c r="A30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" ht="90">
+      <c r="A31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="I19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" ht="45">
+      <c r="A32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" ht="60" customHeight="1">
+      <c r="A33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" ht="60" customHeight="1">
+      <c r="A34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" ht="90">
+      <c r="A35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" ht="60">
+      <c r="A36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" ht="60">
+      <c r="A37" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" ht="60">
+      <c r="A38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" ht="76" customHeight="1">
+      <c r="A39" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="1:12" ht="76" customHeight="1">
+      <c r="A40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="E40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="1:12" ht="90">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="75">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="75">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="60">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="10:12">
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="10:12">
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I51" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="10:12">
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="9:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I52" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="10:12">
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I53" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="10:12">
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I54" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="10:12">
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I55" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="10:12">
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I56" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="10:12">
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I57" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="10:12">
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I58" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="10:12">
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I59" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="10:12">
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I60" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="10:12">
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I61" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="10:12">
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I62" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="10:12">
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I63" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="10:12" ht="55.5" customHeight="1">
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I64" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="10:12">
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I65" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="10:12">
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I66" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="10:12">
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I67" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="10:12">
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I68" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="10:12">
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I69" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="10:12">
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I70" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="10:12">
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I71" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="10:12">
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I72" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="10:12">
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I73" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="10:12">
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I74" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="10:12">
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I75" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="10:12">
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I76" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="10:12">
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="9:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I77" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="10:12">
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I78" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="10:12">
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I79" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="10:12">
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I80" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="10:12">
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I81" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="10:12">
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I82" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="10:12">
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I83" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="10:12">
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I84" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="10:12">
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I85" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="10:12">
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I86" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="10:12">
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I87" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="10:12">
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I88" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="10:12" ht="133.5" customHeight="1">
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I89" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="10:12">
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I91" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="10:12">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="10:12">
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="9:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I92" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="10:12">
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I93" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="10:12">
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I94" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="10:12">
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I95" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="10:12">
       <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I96" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="10:12">
       <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I97" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="10:12">
       <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I98" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="10:12">
       <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I99" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="10:12">
       <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I100" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="10:12">
       <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I102" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="10:12">
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="10:12">
       <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I103" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="10:12" ht="52.5" customHeight="1">
       <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I104" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="10:12">
       <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I105" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="10:12">
       <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I106" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="10:12">
       <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I107" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="10:12">
       <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I108" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="10:12">
       <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I109" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="10:12">
       <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I110" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="10:12">
       <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I111" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="10:12">
       <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I112" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="10:12">
       <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I113" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="10:12">
       <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I114" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="10:12">
       <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I115" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="10:12">
       <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I116" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="10:12">
       <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I117" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="10:12">
       <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I118" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="10:12">
       <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I119" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="10:12">
       <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I120" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="10:12">
       <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I121" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="10:12">
       <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I122" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="10:12">
       <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I123" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="10:12">
       <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I124" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="10:12">
       <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I125" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="10:12">
       <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I126" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="10:12">
       <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="10:12">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="10:12">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="10:12">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="10:12">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="10:12">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="10:12">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="10:12">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="10:12">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="10:12">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="10:12">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="10:12">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:J2 A3:A4 C3:J4 A5:J6 A7:A8 C7:J8 A17 C17:J17 A10:J16 A18:J19 A22:D22 A23:J1048576 A21:C21 A20:B20 D20">
-    <cfRule type="expression" dxfId="35" priority="37">
+  <conditionalFormatting sqref="A1:K2 A3:A4 D3:K4 A5:K7 A8:A9 D8:K9 A22:A23 A26:D27 F26:K27 A24:K25 A11:K21 D22:K23 A41:K1048576">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>EXACT($A1,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>EXACT($A1,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>EXACT($A1,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>EXACT($A1,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" dxfId="31" priority="33">
+  <conditionalFormatting sqref="B3:C4">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>EXACT($A3,"text")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>EXACT($A3,"video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>EXACT($A3,"question")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>EXACT($A3,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>EXACT($A7,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
-      <formula>EXACT($A7,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>EXACT($A7,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>EXACT($A7,"figure")</formula>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="23" priority="33">
+      <formula>EXACT($A8,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="34">
+      <formula>EXACT($A8,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>EXACT($A8,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="36">
+      <formula>EXACT($A8,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>EXACT($A8,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>EXACT($A8,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>EXACT($A8,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28">
-      <formula>EXACT($A8,"figure")</formula>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>EXACT($A9,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>EXACT($A9,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="31">
+      <formula>EXACT($A9,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="32">
+      <formula>EXACT($A9,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>EXACT($A17,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>EXACT($A17,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>EXACT($A17,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>EXACT($A17,"figure")</formula>
+  <conditionalFormatting sqref="B22:C23">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>EXACT($A22,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>EXACT($A22,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>EXACT($A22,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>EXACT($A22,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9 C9:J9">
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>EXACT($A9,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>EXACT($A9,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>EXACT($A9,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>EXACT($A9,"figure")</formula>
+  <conditionalFormatting sqref="A10 D10:K10">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>EXACT($A10,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>EXACT($A10,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>EXACT($A10,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>EXACT($A10,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>EXACT($A9,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>EXACT($A9,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>EXACT($A9,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>EXACT($A9,"figure")</formula>
+  <conditionalFormatting sqref="B10:C10">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>EXACT($A10,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>EXACT($A10,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>EXACT($A10,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>EXACT($A10,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:J21">
-    <cfRule type="expression" dxfId="7" priority="53">
-      <formula>EXACT($A20,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
-      <formula>EXACT($A20,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="55">
-      <formula>EXACT($A20,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="56">
-      <formula>EXACT($A20,"figure")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="3" priority="65">
-      <formula>EXACT(#REF!,"text")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="66">
-      <formula>EXACT(#REF!,"video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="67">
-      <formula>EXACT(#REF!,"question")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="68">
-      <formula>EXACT(#REF!,"figure")</formula>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="expression" dxfId="3" priority="45">
+      <formula>EXACT($A28,"text")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="46">
+      <formula>EXACT($A28,"video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>EXACT($A28,"question")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="48">
+      <formula>EXACT($A28,"figure")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I19" r:id="rId1"/>
+    <hyperlink ref="J25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" fitToHeight="0" orientation="landscape"/>
